--- a/Pénzügyi kimutatások/2024 Április pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2024 Április pénzügyi kimutatás.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Magán\Pénzügyi kimutatások\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Financials\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADADFB9-EC93-4327-84BF-61156AD4120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47053E7-4368-439D-AF65-D1B2400244F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{264BF597-5900-4867-BC48-6462DC9BBECD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{264BF597-5900-4867-BC48-6462DC9BBECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Megnevezések</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Jégsaláta,Narancs,banán,répa,tzatziki,zsepi</t>
+  </si>
+  <si>
+    <t>táska, rágó, Sali,öntetek,joghurtok,puffasztott rizs</t>
   </si>
 </sst>
 </file>
@@ -640,25 +643,25 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -688,7 +691,7 @@
         <v>47100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -709,7 +712,7 @@
         <v>26285</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>45390</v>
       </c>
@@ -728,7 +731,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>45391</v>
       </c>
@@ -747,7 +750,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>45392</v>
       </c>
@@ -760,7 +763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>45393</v>
       </c>
@@ -777,7 +780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>45394</v>
       </c>
@@ -792,7 +795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="12"/>
       <c r="E10" s="16">
         <f>SUM(C12:C16)</f>
@@ -803,7 +806,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -814,7 +817,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>45397</v>
       </c>
@@ -828,7 +831,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>45398</v>
       </c>
@@ -838,7 +841,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>45399</v>
       </c>
@@ -848,7 +851,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>45400</v>
       </c>
@@ -858,7 +861,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>45401</v>
       </c>
@@ -868,24 +871,26 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="20"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="9">
+        <v>11375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="20"/>
       <c r="D18" s="12"/>
       <c r="E18" s="16">
         <f>SUM(C20:C24)</f>
-        <v>0</v>
+        <v>3950</v>
       </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
@@ -893,22 +898,26 @@
       <c r="C19" s="20"/>
       <c r="D19" s="11">
         <f>F17-E18</f>
-        <v>0</v>
+        <v>7425</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>45404</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="21">
+        <v>3950</v>
+      </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>45405</v>
       </c>
@@ -918,7 +927,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>45406</v>
       </c>
@@ -928,7 +937,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>45407</v>
       </c>
@@ -938,7 +947,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>45408</v>
       </c>
@@ -948,14 +957,14 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="20"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="20"/>
       <c r="D26" s="12"/>
@@ -965,7 +974,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
@@ -978,7 +987,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>45411</v>
       </c>
@@ -988,7 +997,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>45412</v>
       </c>
@@ -998,7 +1007,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>45413</v>
       </c>
@@ -1008,7 +1017,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>45414</v>
       </c>
@@ -1018,7 +1027,7 @@
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>45415</v>
       </c>
